--- a/student_database_template.xlsx
+++ b/student_database_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackditto/Hobby/Programming/Lodge-List-Checker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABE651-C172-1048-9252-D5B76DD7871D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559F0EA-1DFC-7243-A2B3-76DD07DB804A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="460" windowWidth="14020" windowHeight="15880" xr2:uid="{150284E2-5BAA-D94E-87D7-E8AF3A8E4D20}"/>
+    <workbookView xWindow="3540" yWindow="460" windowWidth="18580" windowHeight="15880" xr2:uid="{150284E2-5BAA-D94E-87D7-E8AF3A8E4D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Student ID</t>
   </si>
@@ -49,16 +49,64 @@
   </si>
   <si>
     <t>DOB</t>
+  </si>
+  <si>
+    <t>0000001</t>
+  </si>
+  <si>
+    <t>0000002</t>
+  </si>
+  <si>
+    <t>0000003</t>
+  </si>
+  <si>
+    <t>0000004</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott </t>
+  </si>
+  <si>
+    <t>Ditto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC165CF-1A33-B546-B508-FB85AAED0020}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +466,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -437,11 +486,114 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1">
-        <v>36529</v>
-      </c>
+        <v>36047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>